--- a/docs/Test Cases Milestone 4 Done.xlsx
+++ b/docs/Test Cases Milestone 4 Done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmw13\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{700D2A89-9707-4053-8195-5246424D4466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF2471F-3192-4B5A-A66C-255858C3A892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2448" yWindow="96" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,9 +317,6 @@
     <t>we set result = my.Sim.branchZero(my_Sim.get_accumulator(), my_Sim.get_operand(), my_Sim.get_pc()) and assert result = 1, since the accumulator is positive it should only move the pc up one.</t>
   </si>
   <si>
-    <t>We load_ml_my.Sim(my_sim.get_program()), we Execute.execute_program(my.Sim, SimpleGUI(sy_Sim)), and we set result = my.Sim.get_accumulator, and expect result to equal 10</t>
-  </si>
-  <si>
     <t>We create a memory object, and store 10 into location 0</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>We create a my.Sim object, we initialize Memory(100), and we    set_my.Sim.set_program([4206, 0000, 0000, 0000, 0000, 10, 2005, 3110, 4300, 0000, 5])</t>
+  </si>
+  <si>
+    <t>We load_ml_my.Sim(my_sim.get_program()), we Execute.execute_program(my.Sim, GUIActions(my_Sim)), and we set result = my.Sim.get_accumulator, and expect result to equal 10</t>
   </si>
 </sst>
 </file>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.88671875" defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -860,10 +860,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>31</v>
@@ -880,10 +880,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>37</v>
@@ -900,10 +900,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>40</v>
@@ -920,10 +920,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>41</v>
@@ -940,10 +940,10 @@
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>63</v>
@@ -960,13 +960,13 @@
         <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -980,10 +980,10 @@
         <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>66</v>
@@ -1000,10 +1000,10 @@
         <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>65</v>
@@ -1020,10 +1020,10 @@
         <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>64</v>
@@ -1040,10 +1040,10 @@
         <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>67</v>
@@ -1180,10 +1180,10 @@
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>64</v>
@@ -1200,10 +1200,10 @@
         <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>73</v>
@@ -1220,10 +1220,10 @@
         <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>74</v>
@@ -1240,10 +1240,10 @@
         <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>75</v>
@@ -1260,10 +1260,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>76</v>
@@ -1280,10 +1280,10 @@
         <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>77</v>
@@ -1295,18 +1295,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1454,18 +1454,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00ABB944-6231-41CF-B13E-05A9DEE9F654}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258EB8F0-87C4-47E3-9C98-01CFB64F2875}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258EB8F0-87C4-47E3-9C98-01CFB64F2875}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00ABB944-6231-41CF-B13E-05A9DEE9F654}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
